--- a/Follow-up register.xlsx
+++ b/Follow-up register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{52C24ED6-ED8F-4243-9804-A716988678B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89FD375A-A95F-2E4A-8640-E4F669CDAFBB}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{52C24ED6-ED8F-4243-9804-A716988678B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD3D9B2-2624-4FFF-8807-B57D2E089377}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{608C6C86-23A8-744E-AF3C-CFB8D61FCACB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{608C6C86-23A8-744E-AF3C-CFB8D61FCACB}"/>
   </bookViews>
   <sheets>
     <sheet name="RICs" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>Help information</t>
   </si>
@@ -336,6 +336,48 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Joining coding elements between team members</t>
+  </si>
+  <si>
+    <t>SQL Scripting errors</t>
+  </si>
+  <si>
+    <t>Inefficient application and failures. Incorrect programming, being under pressure</t>
+  </si>
+  <si>
+    <t>Broken Object Level Authorization</t>
+  </si>
+  <si>
+    <t>Integrity of the site being compromised</t>
+  </si>
+  <si>
+    <t>Broken User Authentication</t>
+  </si>
+  <si>
+    <t>Unauthorised access to the site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing and Adjust </t>
+  </si>
+  <si>
+    <t>JJ, RM, JB, JC, DB, DH</t>
+  </si>
+  <si>
+    <t>Broken Function Level Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application failure </t>
+  </si>
+  <si>
+    <t>Security Misconfiguration</t>
+  </si>
+  <si>
+    <t>Application security compromise</t>
   </si>
 </sst>
 </file>
@@ -432,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,6 +503,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,65 +877,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC4D562-5331-B64C-8C67-7E61A70FF725}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
-    <col min="2" max="3" width="34.8125" customWidth="1"/>
-    <col min="4" max="6" width="15.8125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.8125" customWidth="1"/>
-    <col min="8" max="8" width="34.8125" customWidth="1"/>
-    <col min="9" max="9" width="14.8125" customWidth="1"/>
-    <col min="10" max="12" width="16.8125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.5625" customWidth="1"/>
+    <col min="3" max="3" width="69.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
@@ -904,45 +952,213 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F3" s="5" t="str" cm="1">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5">
+        <v>70</v>
+      </c>
+      <c r="E3" s="5">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" cm="1">
         <f t="array" ref="F3">IF(OR(ISBLANK(D3),ISBLANK(E3)),"",_xlfn.IFS(AND(D3&lt;35, E3&lt;35), 0, OR(AND(D3&gt;=35,E3&gt;=65), AND(D3&gt;=65,E3&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F4" s="5" t="str" cm="1">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5">
+        <v>70</v>
+      </c>
+      <c r="E4" s="5">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" cm="1">
         <f t="array" ref="F4">IF(OR(ISBLANK(D4),ISBLANK(E4)),"",_xlfn.IFS(AND(D4&lt;35, E4&lt;35), 0, OR(AND(D4&gt;=35,E4&gt;=65), AND(D4&gt;=65,E4&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F5" s="5" t="str" cm="1">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5" cm="1">
         <f t="array" ref="F5">IF(OR(ISBLANK(D5),ISBLANK(E5)),"",_xlfn.IFS(AND(D5&lt;35, E5&lt;35), 0, OR(AND(D5&gt;=35,E5&gt;=65), AND(D5&gt;=65,E5&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F6" s="5" t="str" cm="1">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" cm="1">
         <f t="array" ref="F6">IF(OR(ISBLANK(D6),ISBLANK(E6)),"",_xlfn.IFS(AND(D6&lt;35, E6&lt;35), 0, OR(AND(D6&gt;=35,E6&gt;=65), AND(D6&gt;=65,E6&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F7" s="5" t="str" cm="1">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">IF(OR(ISBLANK(D7),ISBLANK(E7)),"",_xlfn.IFS(AND(D7&lt;35, E7&lt;35), 0, OR(AND(D7&gt;=35,E7&gt;=65), AND(D7&gt;=65,E7&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F8" s="5" t="str" cm="1">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" cm="1">
         <f t="array" ref="F8">IF(OR(ISBLANK(D8),ISBLANK(E8)),"",_xlfn.IFS(AND(D8&lt;35, E8&lt;35), 0, OR(AND(D8&gt;=35,E8&gt;=65), AND(D8&gt;=65,E8&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F9" s="5" t="str" cm="1">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">IF(OR(ISBLANK(D9),ISBLANK(E9)),"",_xlfn.IFS(AND(D9&lt;35, E9&lt;35), 0, OR(AND(D9&gt;=35,E9&gt;=65), AND(D9&gt;=65,E9&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
@@ -987,97 +1203,98 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F17" s="5" t="str" cm="1">
         <f t="array" ref="F17">IF(OR(ISBLANK(D17),ISBLANK(E17)),"",_xlfn.IFS(AND(D17&lt;35, E17&lt;35), 0, OR(AND(D17&gt;=35,E17&gt;=65), AND(D17&gt;=65,E17&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F18" s="5" t="str" cm="1">
         <f t="array" ref="F18">IF(OR(ISBLANK(D18),ISBLANK(E18)),"",_xlfn.IFS(AND(D18&lt;35, E18&lt;35), 0, OR(AND(D18&gt;=35,E18&gt;=65), AND(D18&gt;=65,E18&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F19" s="5" t="str" cm="1">
         <f t="array" ref="F19">IF(OR(ISBLANK(D19),ISBLANK(E19)),"",_xlfn.IFS(AND(D19&lt;35, E19&lt;35), 0, OR(AND(D19&gt;=35,E19&gt;=65), AND(D19&gt;=65,E19&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F20" s="5" t="str" cm="1">
         <f t="array" ref="F20">IF(OR(ISBLANK(D20),ISBLANK(E20)),"",_xlfn.IFS(AND(D20&lt;35, E20&lt;35), 0, OR(AND(D20&gt;=35,E20&gt;=65), AND(D20&gt;=65,E20&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F21" s="5" t="str" cm="1">
         <f t="array" ref="F21">IF(OR(ISBLANK(D21),ISBLANK(E21)),"",_xlfn.IFS(AND(D21&lt;35, E21&lt;35), 0, OR(AND(D21&gt;=35,E21&gt;=65), AND(D21&gt;=65,E21&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F22" s="5" t="str" cm="1">
         <f t="array" ref="F22">IF(OR(ISBLANK(D22),ISBLANK(E22)),"",_xlfn.IFS(AND(D22&lt;35, E22&lt;35), 0, OR(AND(D22&gt;=35,E22&gt;=65), AND(D22&gt;=65,E22&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F23" s="5" t="str" cm="1">
         <f t="array" ref="F23">IF(OR(ISBLANK(D23),ISBLANK(E23)),"",_xlfn.IFS(AND(D23&lt;35, E23&lt;35), 0, OR(AND(D23&gt;=35,E23&gt;=65), AND(D23&gt;=65,E23&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F24" s="5" t="str" cm="1">
         <f t="array" ref="F24">IF(OR(ISBLANK(D24),ISBLANK(E24)),"",_xlfn.IFS(AND(D24&lt;35, E24&lt;35), 0, OR(AND(D24&gt;=35,E24&gt;=65), AND(D24&gt;=65,E24&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B25" s="12"/>
       <c r="F25" s="5" t="str" cm="1">
         <f t="array" ref="F25">IF(OR(ISBLANK(D25),ISBLANK(E25)),"",_xlfn.IFS(AND(D25&lt;35, E25&lt;35), 0, OR(AND(D25&gt;=35,E25&gt;=65), AND(D25&gt;=65,E25&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F26" s="5" t="str" cm="1">
         <f t="array" ref="F26">IF(OR(ISBLANK(D26),ISBLANK(E26)),"",_xlfn.IFS(AND(D26&lt;35, E26&lt;35), 0, OR(AND(D26&gt;=35,E26&gt;=65), AND(D26&gt;=65,E26&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F27" s="5" t="str" cm="1">
         <f t="array" ref="F27">IF(OR(ISBLANK(D27),ISBLANK(E27)),"",_xlfn.IFS(AND(D27&lt;35, E27&lt;35), 0, OR(AND(D27&gt;=35,E27&gt;=65), AND(D27&gt;=65,E27&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F28" s="5" t="str" cm="1">
         <f t="array" ref="F28">IF(OR(ISBLANK(D28),ISBLANK(E28)),"",_xlfn.IFS(AND(D28&lt;35, E28&lt;35), 0, OR(AND(D28&gt;=35,E28&gt;=65), AND(D28&gt;=65,E28&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F29" s="5" t="str" cm="1">
         <f t="array" ref="F29">IF(OR(ISBLANK(D29),ISBLANK(E29)),"",_xlfn.IFS(AND(D29&lt;35, E29&lt;35), 0, OR(AND(D29&gt;=35,E29&gt;=65), AND(D29&gt;=65,E29&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F30" s="5" t="str" cm="1">
         <f t="array" ref="F30">IF(OR(ISBLANK(D30),ISBLANK(E30)),"",_xlfn.IFS(AND(D30&lt;35, E30&lt;35), 0, OR(AND(D30&gt;=35,E30&gt;=65), AND(D30&gt;=65,E30&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F31" s="5" t="str" cm="1">
         <f t="array" ref="F31">IF(OR(ISBLANK(D31),ISBLANK(E31)),"",_xlfn.IFS(AND(D31&lt;35, E31&lt;35), 0, OR(AND(D31&gt;=35,E31&gt;=65), AND(D31&gt;=65,E31&gt;=35)), 2, TRUE, 1))</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F32" s="5" t="str" cm="1">
         <f t="array" ref="F32">IF(OR(ISBLANK(D32),ISBLANK(E32)),"",_xlfn.IFS(AND(D32&lt;35, E32&lt;35), 0, OR(AND(D32&gt;=35,E32&gt;=65), AND(D32&gt;=65,E32&gt;=35)), 2, TRUE, 1))</f>
         <v/>
@@ -1595,7 +1812,7 @@
       </c>
       <c r="C2" s="9">
         <f>COUNTIFS(RICs!D:D,"&gt;=65", RICs!E:E,"&gt;=35",RICs!E:E,"&lt;65")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9">
         <f>COUNTIFS(RICs!D:D,"&gt;=65",RICs!E:E,"&gt;=65")</f>
@@ -1608,7 +1825,7 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIFS(RICs!D:D,"&gt;=35",RICs!D:D,"&lt;65",RICs!E:E,"&lt;35")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIFS(RICs!D:D,"&gt;=35",RICs!E:E,"&gt;=35", RICs!D:D,"&lt;65",RICs!E:E,"&lt;65")</f>
